--- a/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,6 +55,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -70,52 +73,64 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
@@ -124,28 +139,16 @@
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>,</t>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7363013698630136</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,16 +646,16 @@
         <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.374031007751938</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C5">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,31 +743,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>95</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L6">
-        <v>97</v>
-      </c>
-      <c r="M6">
-        <v>97</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1638888888888889</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,21 +817,45 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.0050682261208577</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>0.57</v>
+      </c>
+      <c r="F8">
+        <v>0.43</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5104</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,21 +867,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,21 +893,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -892,47 +919,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L11">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>22</v>
-      </c>
-      <c r="K11">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="L11">
-        <v>113</v>
-      </c>
-      <c r="M11">
-        <v>113</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -944,21 +971,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -970,21 +997,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -996,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1022,21 +1049,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
         <v>27</v>
       </c>
-      <c r="K16">
-        <v>0.7625</v>
-      </c>
-      <c r="L16">
-        <v>122</v>
-      </c>
       <c r="M16">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1048,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1079,16 +1106,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7421875</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1100,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1126,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.7209302325581395</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
-      <c r="K20">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L20">
-        <v>44</v>
-      </c>
       <c r="M20">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1152,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6411764705882353</v>
+        <v>0.72</v>
       </c>
       <c r="L21">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1178,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1204,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1230,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.574468085106383</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1256,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5627118644067797</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L25">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="M25">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1282,12 +1309,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.5571428571428572</v>
@@ -1313,16 +1340,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5481171548117155</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L27">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1334,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.449438202247191</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1360,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.02833333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1386,85 +1413,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.01025851456709069</v>
+        <v>0.02337228714524207</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O30">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>2412</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.006423123243677238</v>
+        <v>0.007883143983306284</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N31">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O31">
-        <v>0.3</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>4950</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>0.005248833592534992</v>
+        <v>0.006810663553220471</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="N32">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="O32">
-        <v>0.4399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>5117</v>
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.006429576049829215</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>51</v>
+      </c>
+      <c r="N33">
+        <v>0.63</v>
+      </c>
+      <c r="O33">
+        <v>0.37</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
